--- a/medicine/Médecine vétérinaire/Technicien_des_services_vétérinaires/Technicien_des_services_vétérinaires.xlsx
+++ b/medicine/Médecine vétérinaire/Technicien_des_services_vétérinaires/Technicien_des_services_vétérinaires.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Technicien_des_services_v%C3%A9t%C3%A9rinaires</t>
+          <t>Technicien_des_services_vétérinaires</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le métier de technicien des services vétérinaires (TSV) est, en France, une profession dépendant du ministère de l’Agriculture qui consiste à rendre visite à des établissements détenant des animaux, domestiques ou non (exploitations agricoles, animaleries, refuges, abattoirs), pour vérifier leurs conditions de vie,  lutter contre les maladies et vérifier la conformité des installations.
 Les techniciens des services vétérinaires ont pour principale mission la surveillance de la qualité et de la sécurité. 
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Technicien_des_services_v%C3%A9t%C3%A9rinaires</t>
+          <t>Technicien_des_services_vétérinaires</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Attributions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans le domaine de la Sécurité Sanitaire de l'Alimentation, les services vétérinaires sont les garants de la sécurité et de la qualité des produits agroalimentaires. Pour cela :
 ils assurent l'inspection des denrées alimentaires,
@@ -535,7 +549,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Technicien_des_services_v%C3%A9t%C3%A9rinaires</t>
+          <t>Technicien_des_services_vétérinaires</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -553,12 +567,14 @@
           <t>Accès à la profession</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Conditions
 Il faut être titulaire d'un niveau IV (bac, bac pro, Brevet de technicien agricole) ou d'un BTS), être de nationalité française et jouir de ses droits civiques.
 Formations
-L'accès à la profession se fait par concours externe (ou interne) d'entrée à l'Institut de formation du ministère de l'Agriculture (INFOMA) situé à Corbas, à proximité de Lyon[1].
+L'accès à la profession se fait par concours externe (ou interne) d'entrée à l'Institut de formation du ministère de l'Agriculture (INFOMA) situé à Corbas, à proximité de Lyon.
 Le Centre de Formation Professionnelle et de Promotion Agricole de Brioude-Bonnefont, situé à Fontannes, est le seul établissement assurant la préparation à temps plein au concours externe de technicien des services vétérinaires.
 </t>
         </is>
